--- a/data/trans_bre/P14_2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P14_2-Estudios-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>2,71</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>42,76%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>70,09%</t>
         </is>
       </c>
     </row>
@@ -609,12 +609,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 1,7</t>
+          <t>0,46; 4,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 3,4</t>
+          <t>-1,15; 7,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-49,33; 119,57</t>
+          <t>-25,24; 349,15</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-3,06</t>
+          <t>-3,78</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>21,72%</t>
+          <t>-0,1%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-32,66%</t>
+          <t>-36,48%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 2,93</t>
+          <t>-2,68; 3,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,3; -0,25</t>
+          <t>-7,38; -0,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-33,99; 123,24</t>
+          <t>-50,36; 122,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-55,85; -3,44</t>
+          <t>-57,45; 1,11</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,51</t>
+          <t>5,55</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,82%</t>
+          <t>10,7%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>19,87%</t>
+          <t>24,96%</t>
         </is>
       </c>
     </row>
@@ -729,29 +729,29 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 3,39</t>
+          <t>-3,46; 5,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 10,35</t>
+          <t>-0,92; 11,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-42,3; 62,38</t>
+          <t>-37,6; 111,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 53,26</t>
+          <t>-3,55; 63,62</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>-2,9</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,37%</t>
+          <t>-26,2%</t>
         </is>
       </c>
     </row>
@@ -789,30 +789,98 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 1,62</t>
+          <t>-2,24; 2,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 2,33</t>
+          <t>-7,81; 1,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-31,37; 47,7</t>
+          <t>-48,51; 97,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-19,49; 20,96</t>
+          <t>-55,74; 20,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,33</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8,03%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,56%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-1,11; 1,84</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-2,27; 2,65</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-23,68; 57,85</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-16,44; 24,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_bre/P14_2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P14_2-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,125 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,49</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,71</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>70,09%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>1.505801501718437</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>2.59358722635597</v>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.6365318821477889</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>0,46; 4,24</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-1,15; 7,17</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-25,24; 349,15</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0.4437615534855661</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-1.523083688326851</v>
+      </c>
+      <c r="E5" s="6" t="inlineStr"/>
+      <c r="F5" s="6" t="n">
+        <v>-0.2893626783757098</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>4.258052495066105</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>7.178671988460837</v>
+      </c>
+      <c r="E6" s="6" t="inlineStr"/>
+      <c r="F6" s="6" t="n">
+        <v>3.273594774390708</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,0</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-3,78</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,1%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-36,48%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-2,68; 3,04</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-7,38; -0,01</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-50,36; 122,05</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-57,45; 1,11</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.2175886059579774</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-3.792891578903292</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.04870570914865727</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.3677180956259694</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,77</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>5,55</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>10,7%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>24,96%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-3.003040952851507</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-7.575601339484733</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.5061210502527121</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.5792028779689794</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-3,46; 5,16</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-0,92; 11,69</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-37,6; 111,08</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-3,55; 63,62</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>3.026003936319972</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>-0.01799431176952168</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>1.181637743317677</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.01849969250257926</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,132 +714,139 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,09</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-2,9</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2,47%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-26,2%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>0.7269506269960548</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>5.898108354008044</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.1035966692805926</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.2690441528612393</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-2,24; 2,21</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-7,81; 1,89</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-48,51; 97,79</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-55,74; 20,77</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-3.23491014015636</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.4108309007006443</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.3699467716184638</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.0180766254999783</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>5.088709884338806</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>12.00661884533595</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>1.089972903727141</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.6584359143140895</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,33</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,07</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>8,03%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,56%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-1,11; 1,84</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-2,27; 2,65</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-23,68; 57,85</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-16,44; 24,14</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>0.285374044375717</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.8267682035263596</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.06114517907347807</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.06456718180379421</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.952914275515619</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-2.080452727302013</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.3182206479453628</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.146035487043235</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>2.34247323214751</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>3.938460895763481</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.6608066777753971</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.3682518347666991</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
